--- a/Website_soccer_final/assets/database.xlsx
+++ b/Website_soccer_final/assets/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\Bammbamm\Website_soccer_final\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB5DA5BE-1B1C-44DF-8721-FA92E8002DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C2832B8D-F6E2-4ED3-BA98-F369D41E8F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
